--- a/Xports/UD_French-GSD/Verb-no-nothing.xlsx
+++ b/Xports/UD_French-GSD/Verb-no-nothing.xlsx
@@ -24812,7 +24812,7 @@
         <v>3238</v>
       </c>
       <c r="O309">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:15">
@@ -37549,7 +37549,7 @@
         <v>3295</v>
       </c>
       <c r="O580">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581" spans="1:15">
@@ -37596,7 +37596,7 @@
         <v>3295</v>
       </c>
       <c r="O581">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="582" spans="1:15">
@@ -40087,7 +40087,7 @@
         <v>3238</v>
       </c>
       <c r="O634">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="635" spans="1:15">
